--- a/kicad/wyostat_BoM.xlsx
+++ b/kicad/wyostat_BoM.xlsx
@@ -127,7 +127,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/kemet/LDEIB2100KA0N00/399-12880-1-ND/5731504</t>
     </r>
@@ -136,7 +135,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -166,7 +164,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/kemet/LDEEB2470KA0N00/399-12871-1-ND/5731513</t>
     </r>
@@ -175,7 +172,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -205,7 +201,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/kemet/C0805C104M5RACTU/399-1169-1-ND/411444</t>
     </r>
@@ -214,7 +209,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -244,7 +238,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B104KCFWPNE/1276-6733-1-ND/5961592</t>
     </r>
@@ -253,7 +246,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -286,7 +278,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/united-chemi-con/HHXC500ARA101MJA0G/565-4786-1-ND/7556757</t>
     </r>
@@ -295,7 +286,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -325,7 +315,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/taiyo-yuden/UMK212BB7225MG-T/587-4963-1-ND/6563806</t>
     </r>
@@ -334,7 +323,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -346,10 +334,10 @@
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">587-2910-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMK212B7105KG-T</t>
+    <t xml:space="preserve">1276-1029-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B105KBFNNNE</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 1UF 50V X7R 0805</t>
@@ -361,16 +349,14 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.digikey.com/product-detail/en/taiyo-yuden/UMK212B7105KG-T/587-2910-1-ND/2649030</t>
+      <t xml:space="preserve">https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B105KBFNNNE/1276-1029-1-ND/3889115</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -397,7 +383,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/kemet/C0805C332K5RACTU/399-1153-1-ND/411428</t>
     </r>
@@ -406,7 +391,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -418,10 +402,10 @@
     <t xml:space="preserve">10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">587-3319-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMK212BB7106MG-T</t>
+    <t xml:space="preserve">1276-2872-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B106KOQNNNE</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 10UF 16V X7R 0805</t>
@@ -433,16 +417,14 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.digikey.com/product-detail/en/taiyo-yuden/EMK212BB7106MG-T/587-3319-1-ND/4157364</t>
+      <t xml:space="preserve">https://www.digikey.in/product-detail/en/samsung-electro-mechanics/CL21B106KOQNNNE/1276-2872-1-ND/3890958</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -454,10 +436,10 @@
     <t xml:space="preserve">4.7uF</t>
   </si>
   <si>
-    <t xml:space="preserve">587-2394-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMK212B7475KG-T</t>
+    <t xml:space="preserve">1276-2873-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B475KOFNNNE</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 4.7UF 16V X7R 0805</t>
@@ -469,16 +451,14 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.digikey.com/product-detail/en/taiyo-yuden/EMK212B7475KG-T/587-2394-1-ND/2179007</t>
+      <t xml:space="preserve">https://www.digikey.in/product-detail/en/samsung-electro-mechanics/CL21B475KOFNNNE/1276-2873-1-ND/3890959</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -511,7 +491,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C193KGKT-5A/160-1828-1-ND/2356247</t>
     </r>
@@ -520,7 +499,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -553,7 +531,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/on-semiconductor/MDB6S/MDB6SFSCT-ND/3137112</t>
     </r>
@@ -562,7 +539,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -592,7 +568,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/bourns-inc/CDSOD323-T05L/CDSOD323-T05LCT-ND/5355715</t>
     </r>
@@ -601,7 +576,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -634,7 +608,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/bel-fuse-inc/0ZCF0075AF2C/507-1743-1-ND/4156174</t>
     </r>
@@ -643,7 +616,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -676,7 +648,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/282834-2/A98333-ND/1150135</t>
     </r>
@@ -685,7 +656,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -736,7 +706,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/wurth-electronics-inc/61300411121/732-5317-ND/4846827</t>
     </r>
@@ -745,7 +714,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -757,7 +725,7 @@
     <t xml:space="preserve">S9337-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">	
+    <t xml:space="preserve">
 Sullins Connector Solutions</t>
   </si>
   <si>
@@ -797,7 +765,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/panasonic-electronic-components/ELL-8TP220MB/PCD2446CT-ND/5673833</t>
     </r>
@@ -806,7 +773,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -839,7 +805,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/tdk-corporation/MPZ2012S331AT000/445-1569-1-ND/571899</t>
     </r>
@@ -848,7 +813,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -899,7 +863,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805FR-07360RL/311-360CRCT-ND/730833</t>
     </r>
@@ -908,7 +871,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -935,7 +897,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/AC0805JR-070RL/YAG3755CT-ND/6006604</t>
     </r>
@@ -944,7 +905,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -968,7 +928,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805JR-07200RL/311-200ARCT-ND/731226</t>
     </r>
@@ -977,7 +936,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1001,7 +959,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805JR-07300RL/311-300ARCT-ND/731254</t>
     </r>
@@ -1010,7 +967,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1034,7 +990,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805JR-0739RL/311-39ARCT-ND/731268</t>
     </r>
@@ -1043,7 +998,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1070,7 +1024,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805JR-0710KL/311-10KARCT-ND/731188</t>
     </r>
@@ -1079,7 +1032,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1106,7 +1058,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0805FR-074K7L/311-4.70KCRCT-ND/730876</t>
     </r>
@@ -1115,7 +1066,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1148,7 +1098,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/te-connectivity-alcoswitch-switches/FSM6JSMA/450-1133-ND/525822</t>
     </r>
@@ -1157,7 +1106,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1187,7 +1135,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/on-semiconductor/MOC3063SR2M/MOC3063SR2MCT-ND/1626439</t>
     </r>
@@ -1196,7 +1143,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1235,7 +1181,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.digikey.com/product-detail/en/maxim-integrated/MAX17502FATB-T/MAX17502FATB-TCT-ND/4807778</t>
     </r>
@@ -1244,7 +1189,6 @@
         <sz val="12"/>
         <rFont val="Droid Sans Mono"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1834,7 +1778,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1906,24 +1850,16 @@
       <sz val="12"/>
       <name val="Droid Sans Mono"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Droid Sans Mono"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Droid Sans Mono"/>
       <family val="2"/>
     </font>
@@ -2048,7 +1984,7 @@
     <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2113,16 +2049,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2220,7 +2148,7 @@
   <dimension ref="A1:J65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.85"/>
@@ -2544,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>72</v>
@@ -2608,7 +2536,7 @@
         <v>83</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>84</v>
@@ -2640,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>90</v>
@@ -3229,7 +3157,7 @@
       <c r="B32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -3388,10 +3316,10 @@
     <hyperlink ref="J7" r:id="rId6" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B104KCFWPNE/1276-6733-1-ND/5961592"/>
     <hyperlink ref="J8" r:id="rId7" display="https://www.digikey.com/product-detail/en/united-chemi-con/HHXC500ARA101MJA0G/565-4786-1-ND/7556757"/>
     <hyperlink ref="J9" r:id="rId8" display="https://www.digikey.com/product-detail/en/taiyo-yuden/UMK212BB7225MG-T/587-4963-1-ND/6563806"/>
-    <hyperlink ref="J10" r:id="rId9" display="https://www.digikey.com/product-detail/en/taiyo-yuden/UMK212B7105KG-T/587-2910-1-ND/2649030"/>
+    <hyperlink ref="J10" r:id="rId9" display="https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B105KBFNNNE/1276-1029-1-ND/3889115"/>
     <hyperlink ref="J11" r:id="rId10" display="https://www.digikey.com/product-detail/en/kemet/C0805C332K5RACTU/399-1153-1-ND/411428"/>
-    <hyperlink ref="J12" r:id="rId11" display="https://www.digikey.com/product-detail/en/taiyo-yuden/EMK212BB7106MG-T/587-3319-1-ND/4157364"/>
-    <hyperlink ref="J13" r:id="rId12" display="https://www.digikey.com/product-detail/en/taiyo-yuden/EMK212B7475KG-T/587-2394-1-ND/2179007"/>
+    <hyperlink ref="J12" r:id="rId11" display="https://www.digikey.in/product-detail/en/samsung-electro-mechanics/CL21B106KOQNNNE/1276-2872-1-ND/3890958"/>
+    <hyperlink ref="J13" r:id="rId12" display="https://www.digikey.in/product-detail/en/samsung-electro-mechanics/CL21B475KOFNNNE/1276-2873-1-ND/3890959"/>
     <hyperlink ref="J14" r:id="rId13" display="https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="J15" r:id="rId14" display="https://www.digikey.com/product-detail/en/on-semiconductor/MDB6S/MDB6SFSCT-ND/3137112"/>
     <hyperlink ref="J16" r:id="rId15" display="https://www.digikey.com/product-detail/en/bourns-inc/CDSOD323-T05L/CDSOD323-T05LCT-ND/5355715"/>
@@ -3469,7 +3397,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3486,7 +3414,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="16" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3506,7 +3434,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3526,7 +3454,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="16" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3543,7 +3471,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3560,7 +3488,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="16" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3583,7 +3511,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3600,7 +3528,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="16" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3617,7 +3545,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="16" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3634,7 +3562,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="16" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3651,7 +3579,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="16" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3668,7 +3596,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="16" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3688,7 +3616,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="16" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3708,7 +3636,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="16" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3725,7 +3653,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="16" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3745,7 +3673,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="16" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3762,7 +3690,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
         <v>259</v>
       </c>
@@ -3777,7 +3705,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>261</v>
       </c>
@@ -3792,7 +3720,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
         <v>263</v>
       </c>
@@ -3807,7 +3735,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="16" t="n">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3824,7 +3752,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="16" t="n">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3841,7 +3769,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="A23" s="16" t="n">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3861,7 +3789,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="16" t="n">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3878,7 +3806,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
+      <c r="A25" s="16" t="n">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3890,7 +3818,7 @@
       <c r="D25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -3901,7 +3829,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+      <c r="A26" s="16" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3918,7 +3846,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="16" t="n">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3935,7 +3863,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="16" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3952,7 +3880,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+      <c r="A29" s="16" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3969,7 +3897,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="A30" s="16" t="n">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3986,7 +3914,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="A31" s="16" t="n">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4003,7 +3931,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+      <c r="A32" s="16" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4020,7 +3948,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+      <c r="A33" s="16" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4037,7 +3965,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>270</v>
       </c>
@@ -4052,7 +3980,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>272</v>
       </c>
@@ -4067,7 +3995,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>274</v>
       </c>
@@ -4082,7 +4010,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="16" t="n">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4102,7 +4030,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="16" t="n">
         <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4122,7 +4050,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="16" t="n">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4142,7 +4070,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="16" t="n">
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5302,7 +5230,7 @@
       <c r="B55" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -5313,7 +5241,7 @@
       <c r="B56" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -5324,7 +5252,7 @@
       <c r="B57" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D57" s="3" t="s">
